--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/10  PRUEBA DE COBROS POSTERIORES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/10  PRUEBA DE COBROS POSTERIORES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91474454-FD67-4AEA-A1F8-A3C363888E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -79,15 +74,6 @@
   </si>
   <si>
     <t>CLIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               Entidad XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                   Del 01 de enero al 31 de diciembre del 2024</t>
   </si>
   <si>
     <t xml:space="preserve">                 </t>
@@ -205,9 +191,6 @@
     <t>BD004</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                 Prueba de Cobros Posteriores</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -239,15 +222,27 @@
   <si>
     <t>B-10</t>
   </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Prueba de Cobros Posteriores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +277,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -457,9 +445,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,28 +461,18 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -503,15 +481,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -529,21 +507,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,32 +523,38 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,7 +598,7 @@
         <xdr:cNvPr id="4" name="Triángulo rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9FFC9DE-63E8-4405-B8FB-47FEE8D7206F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +666,7 @@
         <xdr:cNvPr id="5" name="Flecha: curvada hacia la derecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44FD80A-8C87-4E1D-BAF5-5DE70F8D7F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -760,7 +738,7 @@
         <xdr:cNvPr id="6" name="Flecha: pentágono 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D8FE0D-A4AE-4E3C-A7B7-4003A0C6A2E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,7 +806,7 @@
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B0D317-520F-4DC6-9EE9-7F8A2D433D9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -943,20 +927,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B16:L21" headerRowDxfId="0">
-  <autoFilter ref="B16:L21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:L21" headerRowDxfId="0">
+  <autoFilter ref="B16:L21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="CUENTA" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="CLIENTE"/>
-    <tableColumn id="3" name="NÚMERO DE FACTURA"/>
-    <tableColumn id="4" name="FECHA DE FACTURA"/>
-    <tableColumn id="5" name="IMPORTE FACTURA"/>
-    <tableColumn id="6" name="DOCUMENTO DE COBRO"/>
-    <tableColumn id="7" name="FECHA DE COBRO"/>
-    <tableColumn id="8" name="IMPORTE COBRO"/>
-    <tableColumn id="9" name="BANCO"/>
-    <tableColumn id="10" name="BOLETA DE DEPÓSITO"/>
-    <tableColumn id="11" name="FECHA DE DEPÓSITO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CUENTA" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="CLIENTE"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NÚMERO DE FACTURA"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="FECHA DE FACTURA"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IMPORTE FACTURA"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DOCUMENTO DE COBRO"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE COBRO"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="IMPORTE COBRO"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BANCO"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="BOLETA DE DEPÓSITO"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FECHA DE DEPÓSITO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1258,7 +1242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1273,11 +1257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,106 +1278,103 @@
     <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="39" t="s">
+    <row r="2" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="L5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="L7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="L4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="L5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="L6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="L7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1404,214 +1385,214 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="40" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="46" t="s">
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="L15" s="42"/>
+    </row>
+    <row r="16" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="H16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="I16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="K16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="26" t="s">
+    </row>
+    <row r="17" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="E17" s="32">
+        <v>45275</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" s="32">
+        <v>45657</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="37">
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="31">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="32">
         <v>45275</v>
       </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="37">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="33">
         <v>45657</v>
       </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="36">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="31">
         <v>45657</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="37">
+    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="32">
         <v>45275</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="38">
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="33">
         <v>45657</v>
       </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I19" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="36">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="31">
         <v>45657</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="37">
+    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="32">
         <v>45275</v>
       </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="38">
+      <c r="F20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="33">
         <v>45657</v>
       </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="36">
+      <c r="J20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="31">
         <v>45657</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
-        <v>4</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="37">
-        <v>45275</v>
-      </c>
-      <c r="F20" s="18" t="s">
+    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="38">
-        <v>45657</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="36">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
@@ -1625,30 +1606,30 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
@@ -1689,78 +1670,82 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="I37" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="K15:L15"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
